--- a/data/raw/weather_Lemala/z6-08628 20Apr23-1256.xlsx
+++ b/data/raw/weather_Lemala/z6-08628 20Apr23-1256.xlsx
@@ -394,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,13 +406,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -454,7 +447,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +754,10 @@
   <dimension ref="A1:J1097"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B1077" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A1098" sqref="A1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19354,10 +19346,10 @@
         <v>76.8</v>
       </c>
       <c r="E581" s="4">
-        <v>3</v>
-      </c>
-      <c r="F581" s="9">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="F581" s="4">
+        <v>0</v>
       </c>
       <c r="G581" s="5">
         <v>100</v>
@@ -19386,10 +19378,10 @@
         <v>76.819999999999993</v>
       </c>
       <c r="E582" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F582" s="9">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="F582" s="4">
+        <v>0</v>
       </c>
       <c r="G582" s="5">
         <v>100</v>
